--- a/INVENTARIOS DEPOSITO/geral do inventario dia 27-7.xlsx
+++ b/INVENTARIOS DEPOSITO/geral do inventario dia 27-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chadi Salloum\Desktop\INVENTARIOS\INVENTARIOS DEPOSITO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBFBD4B-A75A-4262-AF8D-64BAF3E1DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FDC80C-B8F8-4F53-9E75-252681857E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C584567E-EF50-4206-A66E-D9666C837B84}"/>
   </bookViews>
@@ -1516,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30941C0-9C66-457F-8068-78BC83E4BC79}">
   <dimension ref="A1:Z246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
